--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.71647433333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="H2">
-        <v>44.149423</v>
+        <v>0.095585</v>
       </c>
       <c r="I2">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="J2">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N2">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O2">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P2">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q2">
-        <v>3021.483892144474</v>
+        <v>0.004831959817222222</v>
       </c>
       <c r="R2">
-        <v>27193.35502930027</v>
+        <v>0.043487638355</v>
       </c>
       <c r="S2">
-        <v>0.04588892234735186</v>
+        <v>1.463936984694893E-07</v>
       </c>
       <c r="T2">
-        <v>0.04588892234735185</v>
+        <v>1.463936984694893E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.71647433333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="H3">
-        <v>44.149423</v>
+        <v>0.095585</v>
       </c>
       <c r="I3">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="J3">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O3">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P3">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q3">
-        <v>2.749346451427666</v>
+        <v>0.005952428428333333</v>
       </c>
       <c r="R3">
-        <v>24.744118062849</v>
+        <v>0.053571855855</v>
       </c>
       <c r="S3">
-        <v>4.175582274111919E-05</v>
+        <v>1.803404923593906E-07</v>
       </c>
       <c r="T3">
-        <v>4.175582274111919E-05</v>
+        <v>1.803404923593905E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.71647433333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="H4">
-        <v>44.149423</v>
+        <v>0.095585</v>
       </c>
       <c r="I4">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="J4">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N4">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O4">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P4">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q4">
-        <v>0.657473207316</v>
+        <v>0.0001244835316666667</v>
       </c>
       <c r="R4">
-        <v>5.917258865844</v>
+        <v>0.001120351785</v>
       </c>
       <c r="S4">
-        <v>9.985403872060642E-06</v>
+        <v>3.771472712640115E-09</v>
       </c>
       <c r="T4">
-        <v>9.985403872060642E-06</v>
+        <v>3.771472712640115E-09</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.71647433333333</v>
+        <v>0.03186166666666667</v>
       </c>
       <c r="H5">
-        <v>44.149423</v>
+        <v>0.095585</v>
       </c>
       <c r="I5">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="J5">
-        <v>0.1054330184450109</v>
+        <v>0.0002078156820111728</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N5">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O5">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P5">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q5">
-        <v>3917.180503563977</v>
+        <v>6.848382445846668</v>
       </c>
       <c r="R5">
-        <v>35254.6245320758</v>
+        <v>61.63544201262001</v>
       </c>
       <c r="S5">
-        <v>0.05949235487104589</v>
+        <v>0.0002074851763476313</v>
       </c>
       <c r="T5">
-        <v>0.05949235487104587</v>
+        <v>0.0002074851763476313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.22156</v>
       </c>
       <c r="I6">
-        <v>0.0005291063388682707</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="J6">
-        <v>0.0005291063388682706</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N6">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O6">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P6">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q6">
-        <v>15.16305142070667</v>
+        <v>0.01120017803111111</v>
       </c>
       <c r="R6">
-        <v>136.46746278636</v>
+        <v>0.10080160228</v>
       </c>
       <c r="S6">
-        <v>0.0002302895246281991</v>
+        <v>3.393313577747561E-07</v>
       </c>
       <c r="T6">
-        <v>0.0002302895246281991</v>
+        <v>3.393313577747561E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.22156</v>
       </c>
       <c r="I7">
-        <v>0.0005291063388682707</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="J7">
-        <v>0.0005291063388682706</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O7">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P7">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q7">
         <v>0.01379735358666667</v>
@@ -883,10 +883,10 @@
         <v>0.12417618228</v>
       </c>
       <c r="S7">
-        <v>2.095479274218911E-07</v>
+        <v>4.180178844708539E-07</v>
       </c>
       <c r="T7">
-        <v>2.095479274218911E-07</v>
+        <v>4.180178844708539E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>0.22156</v>
       </c>
       <c r="I8">
-        <v>0.0005291063388682707</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="J8">
-        <v>0.0005291063388682706</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N8">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O8">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P8">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q8">
-        <v>0.003299471520000001</v>
+        <v>0.0002885449733333334</v>
       </c>
       <c r="R8">
-        <v>0.02969524368</v>
+        <v>0.00259690476</v>
       </c>
       <c r="S8">
-        <v>5.011087193356426E-08</v>
+        <v>8.742035823743724E-09</v>
       </c>
       <c r="T8">
-        <v>5.011087193356425E-08</v>
+        <v>8.742035823743724E-09</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.22156</v>
       </c>
       <c r="I9">
-        <v>0.0005291063388682707</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="J9">
-        <v>0.0005291063388682706</v>
+        <v>0.0004817036408055181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N9">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O9">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P9">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q9">
-        <v>19.65802616196445</v>
+        <v>15.87411847781334</v>
       </c>
       <c r="R9">
-        <v>176.92223545768</v>
+        <v>142.86706630032</v>
       </c>
       <c r="S9">
-        <v>0.0002985571554407161</v>
+        <v>0.0004809375495274487</v>
       </c>
       <c r="T9">
-        <v>0.0002985571554407161</v>
+        <v>0.0004809375495274487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2065306666666666</v>
+        <v>0.1279203333333333</v>
       </c>
       <c r="H10">
-        <v>0.6195919999999999</v>
+        <v>0.383761</v>
       </c>
       <c r="I10">
-        <v>0.001479644587073793</v>
+        <v>0.0008343521885681821</v>
       </c>
       <c r="J10">
-        <v>0.001479644587073792</v>
+        <v>0.000834352188568182</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N10">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O10">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P10">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q10">
-        <v>42.40343634166133</v>
+        <v>0.01939967287144444</v>
       </c>
       <c r="R10">
-        <v>381.630927074952</v>
+        <v>0.174597055843</v>
       </c>
       <c r="S10">
-        <v>0.0006440040943466108</v>
+        <v>5.87751133738031E-07</v>
       </c>
       <c r="T10">
-        <v>0.0006440040943466108</v>
+        <v>5.877511337380311E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2065306666666666</v>
+        <v>0.1279203333333333</v>
       </c>
       <c r="H11">
-        <v>0.6195919999999999</v>
+        <v>0.383761</v>
       </c>
       <c r="I11">
-        <v>0.001479644587073793</v>
+        <v>0.0008343521885681821</v>
       </c>
       <c r="J11">
-        <v>0.001479644587073792</v>
+        <v>0.000834352188568182</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O11">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P11">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q11">
-        <v>0.03858426567733333</v>
+        <v>0.02389820459366666</v>
       </c>
       <c r="R11">
-        <v>0.3472583910959999</v>
+        <v>0.215083841343</v>
       </c>
       <c r="S11">
-        <v>5.860002683118989E-07</v>
+        <v>7.240429741939853E-07</v>
       </c>
       <c r="T11">
-        <v>5.860002683118988E-07</v>
+        <v>7.240429741939852E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2065306666666666</v>
+        <v>0.1279203333333333</v>
       </c>
       <c r="H12">
-        <v>0.6195919999999999</v>
+        <v>0.383761</v>
       </c>
       <c r="I12">
-        <v>0.001479644587073793</v>
+        <v>0.0008343521885681821</v>
       </c>
       <c r="J12">
-        <v>0.001479644587073792</v>
+        <v>0.000834352188568182</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N12">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O12">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P12">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q12">
-        <v>0.009226964063999999</v>
+        <v>0.0004997847423333333</v>
       </c>
       <c r="R12">
-        <v>0.08304267657599999</v>
+        <v>0.004498062681</v>
       </c>
       <c r="S12">
-        <v>1.401349312288362E-07</v>
+        <v>1.514195888136719E-08</v>
       </c>
       <c r="T12">
-        <v>1.401349312288362E-07</v>
+        <v>1.514195888136719E-08</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2065306666666666</v>
+        <v>0.1279203333333333</v>
       </c>
       <c r="H13">
-        <v>0.6195919999999999</v>
+        <v>0.383761</v>
       </c>
       <c r="I13">
-        <v>0.001479644587073793</v>
+        <v>0.0008343521885681821</v>
       </c>
       <c r="J13">
-        <v>0.001479644587073792</v>
+        <v>0.000834352188568182</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N13">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O13">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P13">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q13">
-        <v>54.97362225015288</v>
+        <v>27.49534022912134</v>
       </c>
       <c r="R13">
-        <v>494.7626002513759</v>
+        <v>247.458062062092</v>
       </c>
       <c r="S13">
-        <v>0.000834914357527641</v>
+        <v>0.0008330252525013687</v>
       </c>
       <c r="T13">
-        <v>0.0008349143575276409</v>
+        <v>0.0008330252525013687</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.584409</v>
+        <v>153.0833153333333</v>
       </c>
       <c r="H14">
-        <v>373.753227</v>
+        <v>459.249946</v>
       </c>
       <c r="I14">
-        <v>0.8925582306290472</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="J14">
-        <v>0.892558230629047</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>205.313027</v>
+        <v>0.1516543333333333</v>
       </c>
       <c r="N14">
-        <v>615.9390810000001</v>
+        <v>0.454963</v>
       </c>
       <c r="O14">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133411</v>
       </c>
       <c r="P14">
-        <v>0.435242422384838</v>
+        <v>0.0007044400935133412</v>
       </c>
       <c r="Q14">
-        <v>25578.80212879605</v>
+        <v>23.21574813133311</v>
       </c>
       <c r="R14">
-        <v>230209.2191591644</v>
+        <v>208.941733181998</v>
       </c>
       <c r="S14">
-        <v>0.3884792064185114</v>
+        <v>0.000703366617323359</v>
       </c>
       <c r="T14">
-        <v>0.3884792064185114</v>
+        <v>0.0007033666173233591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.584409</v>
+        <v>153.0833153333333</v>
       </c>
       <c r="H15">
-        <v>373.753227</v>
+        <v>459.249946</v>
       </c>
       <c r="I15">
-        <v>0.8925582306290472</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="J15">
-        <v>0.892558230629047</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.5604629999999999</v>
       </c>
       <c r="O15">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="P15">
-        <v>0.0003960412341120362</v>
+        <v>0.0008677905854558892</v>
       </c>
       <c r="Q15">
-        <v>23.274983873789</v>
+        <v>28.59917805388866</v>
       </c>
       <c r="R15">
-        <v>209.474854864101</v>
+        <v>257.392602484998</v>
       </c>
       <c r="S15">
-        <v>0.0003534898631751832</v>
+        <v>0.000866468184104865</v>
       </c>
       <c r="T15">
-        <v>0.0003534898631751832</v>
+        <v>0.000866468184104865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.584409</v>
+        <v>153.0833153333333</v>
       </c>
       <c r="H16">
-        <v>373.753227</v>
+        <v>459.249946</v>
       </c>
       <c r="I16">
-        <v>0.8925582306290472</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="J16">
-        <v>0.892558230629047</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.044676</v>
+        <v>0.003907</v>
       </c>
       <c r="N16">
-        <v>0.134028</v>
+        <v>0.011721</v>
       </c>
       <c r="O16">
-        <v>9.470850801135487E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="P16">
-        <v>9.470850801135488E-05</v>
+        <v>1.814816223752233E-05</v>
       </c>
       <c r="Q16">
-        <v>5.565933056484001</v>
+        <v>0.5980965130073334</v>
       </c>
       <c r="R16">
-        <v>50.09339750835601</v>
+        <v>5.382868617066</v>
       </c>
       <c r="S16">
-        <v>8.453285833613184E-05</v>
+        <v>1.812050677010458E-05</v>
       </c>
       <c r="T16">
-        <v>8.453285833613184E-05</v>
+        <v>1.812050677010458E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.584409</v>
+        <v>153.0833153333333</v>
       </c>
       <c r="H17">
-        <v>373.753227</v>
+        <v>459.249946</v>
       </c>
       <c r="I17">
-        <v>0.8925582306290472</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="J17">
-        <v>0.892558230629047</v>
+        <v>0.9984761284886152</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>266.1765593333333</v>
+        <v>214.941124</v>
       </c>
       <c r="N17">
-        <v>798.529678</v>
+        <v>644.8233720000001</v>
       </c>
       <c r="O17">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587932</v>
       </c>
       <c r="P17">
-        <v>0.5642668278730386</v>
+        <v>0.9984096211587933</v>
       </c>
       <c r="Q17">
-        <v>33161.44933419677</v>
+        <v>32903.8998633931</v>
       </c>
       <c r="R17">
-        <v>298453.0440077709</v>
+        <v>296135.0987705379</v>
       </c>
       <c r="S17">
-        <v>0.5036410014890245</v>
+        <v>0.9968881731804168</v>
       </c>
       <c r="T17">
-        <v>0.5036410014890244</v>
+        <v>0.9968881731804169</v>
       </c>
     </row>
   </sheetData>
